--- a/medicine/Enfance/La_Pente_glissante/La_Pente_glissante.xlsx
+++ b/medicine/Enfance/La_Pente_glissante/La_Pente_glissante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Pente glissante (The Slippery Slope) est le dixième tome de la série Les Désastreuses Aventures des orphelins Baudelaire par Lemony Snicket.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comte Olaf a enlevé Prunille (déguisée en bébé mi-loup) et roule en direction des monts Mainmorte pour brûler le pénultième lieu sûr et un certain dossier Snicket qui prouve ses nombreux crimes, après s'être débarrassé de Klaus et de Violette en coupant la corde qui reliait sa voiture à la roulotte et laissant la roulotte dévaler la pente à toute vitesse en direction d'un ravin. Violette l'arrête grâce à des hamacs, une table de jeu et une mixture très gluante.
 Les aînés Baudelaire se font aussi attaquer par des moucherons des neiges et rencontrent les Scouts des Neiges, qui font une expédition annuelle aux monts Maimorte ; ils ont la désagréable surprise de retrouver Carmelita Spats, mais rencontrent également un certain Quigley Beauxdraps (frère d'Isadora et Duncan) que l'on croyait mort. 
@@ -545,7 +559,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2019, la série télévisée Les Désastreuses Aventures des Orphelins Baudelaire adapte le roman dans le deux premiers épisodes de la troisième saison.
 </t>
